--- a/Excel sheets/QAR613.xlsx
+++ b/Excel sheets/QAR613.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>DDEXz3cfb9usjbpKZgObCK3DjJ4LEghT</t>
+          <t>8Xk8ZRVYUpQDXXLppgN5x8p1CUa0s6X9</t>
         </is>
       </c>
     </row>
